--- a/Fase 2/Evidencias Proyecto/Evidencias de documentacion/6.Epicas e Historias de usuarios.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentacion/6.Epicas e Historias de usuarios.xlsx
@@ -8,15 +8,32 @@
     <sheet state="visible" name="Actividades" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'Historias de Usuario'!$A$3:$G$20</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'Historias de Usuario'!$A$6:$G$23</definedName>
     <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Actividades!$A$3:$E$53</definedName>
   </definedNames>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="4k/zWPwYymDqlWkb7Sir9oLA4MJhRzbIEDzKE9OAjV4="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="278">
+  <si>
+    <t xml:space="preserve">Proyecto </t>
+  </si>
+  <si>
+    <t>SIPstore</t>
+  </si>
+  <si>
+    <t>Cliente o empresa</t>
+  </si>
+  <si>
+    <t>Jose Antonio Campos</t>
+  </si>
   <si>
     <t>Tabla de Epicas</t>
   </si>
@@ -160,9 +177,6 @@
     <t>Alta</t>
   </si>
   <si>
-    <t>8 puntos</t>
-  </si>
-  <si>
     <t>HU-001</t>
   </si>
   <si>
@@ -190,9 +204,6 @@
     <t>El usuario puede navegar entre distintas pestañas de la pagina web y aparece la informacion de la empresa con claridad al final de la pagina</t>
   </si>
   <si>
-    <t>3 puntos</t>
-  </si>
-  <si>
     <t>Título: Nombre corto de la historia.</t>
   </si>
   <si>
@@ -211,9 +222,6 @@
     <t>Media</t>
   </si>
   <si>
-    <t>5 puntos</t>
-  </si>
-  <si>
     <t>Prioridad: Urgencia (Alta/Media/Baja).</t>
   </si>
   <si>
@@ -253,13 +261,10 @@
     <t>Cotizador automatico</t>
   </si>
   <si>
-    <t>Como cliente quiero calcular los paneles necesarios en m² para obtener una cotizacion mas rapida</t>
-  </si>
-  <si>
-    <t>El sitema devuelve una estimacion precisa de la cantidad de paneles al recibir la medida en m², muestra el precio, y la opcion para agregar al carrito</t>
-  </si>
-  <si>
-    <t>13 puntos</t>
+    <t>Como cliente quiero calcular los paneles necesarios segun dimensiones (Alto x Ancho) para obtener una cotizacion mas rapida</t>
+  </si>
+  <si>
+    <t>El sitema devuelve una estimacion precisa de la cantidad de paneles al recibir la medida en m segun dimensionalidad  (largo x ancho), muestra el precio, y la opcion para agregar al carrito</t>
   </si>
   <si>
     <t>HU-008</t>
@@ -703,7 +708,7 @@
     <t>Integrar pasarela de pago</t>
   </si>
   <si>
-    <t>configurar integracion con apis de pagos (ej. transbank, webpay, paypal)</t>
+    <t>configurar integracion con apis de pagos (Mercado pago)</t>
   </si>
   <si>
     <t>T-034</t>
@@ -857,7 +862,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -866,21 +871,22 @@
     </font>
     <font>
       <b/>
-      <sz val="15.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="0"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -917,31 +923,37 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1164,452 +1176,1419 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="7.88"/>
     <col customWidth="1" min="2" max="2" width="32.5"/>
     <col customWidth="1" min="3" max="3" width="54.88"/>
     <col customWidth="1" min="4" max="4" width="67.5"/>
     <col customWidth="1" min="5" max="5" width="5.0"/>
+    <col customWidth="1" min="6" max="6" width="12.63"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+    </row>
+    <row r="5" ht="15.75" customHeight="1"/>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="3" t="s">
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="3" t="s">
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="3" t="s">
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="4" t="s">
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6" t="s">
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-    </row>
+      <c r="C12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1623,7 +2602,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="10.75"/>
     <col customWidth="1" min="2" max="2" width="8.5"/>
@@ -1631,463 +2610,1469 @@
     <col customWidth="1" min="4" max="4" width="50.0"/>
     <col customWidth="1" min="5" max="5" width="61.75"/>
     <col customWidth="1" min="6" max="6" width="11.25"/>
-    <col customWidth="1" min="8" max="8" width="36.5"/>
+    <col customWidth="1" min="8" max="8" width="7.38"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="3" t="s">
+    </row>
+    <row r="5" ht="15.75" customHeight="1"/>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="4" t="s">
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="E7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="G7" s="9">
+        <v>17.0</v>
+      </c>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="D8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="E8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="9">
+        <v>17.0</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="4" t="s">
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="D9" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="E9" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="F9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="9">
+        <v>17.0</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="4" t="s">
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="B10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="F10" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="8" hidden="1">
-      <c r="A8" s="4" t="s">
+      <c r="G10" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="4" t="s">
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="E11" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" hidden="1">
-      <c r="A9" s="4" t="s">
+      <c r="F11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="9">
+        <v>16.0</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="D12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" hidden="1">
-      <c r="A10" s="4" t="s">
+      <c r="E12" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="F12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="9">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="B13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="D13" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="E13" s="10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" hidden="1">
-      <c r="A11" s="4" t="s">
+      <c r="F13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="9">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D14" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E14" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F14" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" hidden="1">
-      <c r="A12" s="4" t="s">
+      <c r="G14" s="9">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D15" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E15" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" hidden="1">
-      <c r="A13" s="4" t="s">
+      <c r="F15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="9">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D16" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E16" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F16" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" hidden="1">
-      <c r="A14" s="4" t="s">
+      <c r="G16" s="9">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D17" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E17" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" hidden="1">
-      <c r="A15" s="4" t="s">
+      <c r="F17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="9">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="B18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D18" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E18" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" s="3" t="s">
+      <c r="F18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="9">
+        <v>9.0</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="16" hidden="1">
-      <c r="A16" s="4" t="s">
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="9">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="9">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" hidden="1">
-      <c r="A17" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" hidden="1">
-      <c r="A18" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="C21" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D21" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E21" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" hidden="1">
-      <c r="A19" s="4" t="s">
+      <c r="F21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="9">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="B22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D22" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E22" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" hidden="1">
-      <c r="A20" s="4" t="s">
+      <c r="F22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="9">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="B23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D23" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E23" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="4"/>
-    </row>
+      <c r="F23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="9">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$3:$G$20">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="HU-004"/>
-        <filter val="HU-003"/>
-        <filter val="HU-002"/>
-        <filter val="HU-001"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="$A$6:$G$23"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:G4"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2101,1309 +4086,2192 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="7.63"/>
     <col customWidth="1" min="2" max="2" width="9.88"/>
     <col customWidth="1" min="3" max="3" width="27.38"/>
     <col customWidth="1" min="4" max="4" width="82.13"/>
+    <col customWidth="1" min="5" max="5" width="12.63"/>
     <col customWidth="1" min="6" max="6" width="6.25"/>
-    <col customWidth="1" min="11" max="11" width="51.38"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+    <row r="2" ht="15.75" customHeight="1"/>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="G3" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="4" t="s">
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="4" t="s">
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="4" t="s">
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="4" t="s">
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="4" t="s">
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="4" t="s">
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="4" t="s">
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="16" hidden="1">
-      <c r="A16" s="4" t="s">
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="17" hidden="1">
-      <c r="A17" s="4" t="s">
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="18" hidden="1">
-      <c r="A18" s="4" t="s">
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="19" hidden="1">
-      <c r="A19" s="4" t="s">
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="20" hidden="1">
-      <c r="A20" s="4" t="s">
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="B20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="21" hidden="1">
-      <c r="A21" s="4" t="s">
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="B21" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="22" hidden="1">
-      <c r="A22" s="4" t="s">
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="B22" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="23" hidden="1">
-      <c r="A23" s="4" t="s">
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="24" hidden="1">
-      <c r="A24" s="4" t="s">
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="B24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="25" hidden="1">
-      <c r="A25" s="4" t="s">
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="26" hidden="1">
-      <c r="A26" s="4" t="s">
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="27" hidden="1">
-      <c r="A27" s="4" t="s">
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" ht="27.0" hidden="1" customHeight="1">
-      <c r="A28" s="4" t="s">
+    <row r="28" ht="27.0" customHeight="1">
+      <c r="A28" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="29" hidden="1">
-      <c r="A29" s="4" t="s">
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" hidden="1">
-      <c r="A30" s="4" t="s">
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="31" hidden="1">
-      <c r="A31" s="4" t="s">
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="32" hidden="1">
-      <c r="A32" s="4" t="s">
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="33" hidden="1">
-      <c r="A33" s="4" t="s">
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="34" hidden="1">
-      <c r="A34" s="4" t="s">
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="35" hidden="1">
-      <c r="A35" s="4" t="s">
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="36" hidden="1">
-      <c r="A36" s="4" t="s">
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="37" hidden="1">
-      <c r="A37" s="4" t="s">
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="38" hidden="1">
-      <c r="A38" s="4" t="s">
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="39" hidden="1">
-      <c r="A39" s="4" t="s">
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="40" hidden="1">
-      <c r="A40" s="4" t="s">
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="41" hidden="1">
-      <c r="A41" s="4" t="s">
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="42" hidden="1">
-      <c r="A42" s="4" t="s">
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="43" hidden="1">
-      <c r="A43" s="4" t="s">
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="44" hidden="1">
-      <c r="A44" s="4" t="s">
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="45" hidden="1">
-      <c r="A45" s="4" t="s">
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="46" hidden="1">
-      <c r="A46" s="4" t="s">
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="47" hidden="1">
-      <c r="A47" s="4" t="s">
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="48" hidden="1">
-      <c r="A48" s="4" t="s">
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="49" hidden="1">
-      <c r="A49" s="4" t="s">
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="50" hidden="1">
-      <c r="A50" s="4" t="s">
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="51" hidden="1">
-      <c r="A51" s="4" t="s">
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="52" hidden="1">
-      <c r="A52" s="4" t="s">
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="53" hidden="1">
-      <c r="A53" s="4" t="s">
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="5"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="7"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="7"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="7"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" s="7"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104" s="7"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="A105" s="7"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" s="7"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="7"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+    </row>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$3:$E$53">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="HU-004"/>
-        <filter val="HU-003"/>
-        <filter val="HU-002"/>
-        <filter val="HU-001"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="$A$3:$E$53"/>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
